--- a/biology/Botanique/Cirsium_oleraceum/Cirsium_oleraceum.xlsx
+++ b/biology/Botanique/Cirsium_oleraceum/Cirsium_oleraceum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirsium oleraceum
 Le Cirse maraîcher (Cirsium oleraceum), appelé également Cirse faux-épinard, est une espèce de plante à fleurs appartenant au genre Cirsium et à la famille des Astéracées (ou Composées). Assez courant dans le nord et l'est de la France, il est à peu près inexistant dans le Sud et dans l'Ouest.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace, moyenne ou grande (jusqu'à 1,50 m), robuste et à tige dressée, à nombreuses feuilles alternes et sessiles, peu épineuses, celles de la base pennatilobées, les supérieures entières à marge dentée. Capitules ovoïdes groupés au sommet de la tige, enveloppés de bractées foliacées épineuses et jaunâtres. Les bractées moyennes sont linéaires et épineuses, souvent recourbées, recouvertes au début de la floraison de filaments arachnéens. Fleurons tous tubulés, jaune paille à blanchâtres. Il existe une forme à fleurs violacées[1]. Les fruits sont des akènes à pappus blanc roussâtre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace, moyenne ou grande (jusqu'à 1,50 m), robuste et à tige dressée, à nombreuses feuilles alternes et sessiles, peu épineuses, celles de la base pennatilobées, les supérieures entières à marge dentée. Capitules ovoïdes groupés au sommet de la tige, enveloppés de bractées foliacées épineuses et jaunâtres. Les bractées moyennes sont linéaires et épineuses, souvent recourbées, recouvertes au début de la floraison de filaments arachnéens. Fleurons tous tubulés, jaune paille à blanchâtres. Il existe une forme à fleurs violacées. Les fruits sont des akènes à pappus blanc roussâtre.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve le Cirse maraîcher en Europe sous des climats continentaux. Il pousse spontanément dans les prairies et bois humides[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve le Cirse maraîcher en Europe sous des climats continentaux. Il pousse spontanément dans les prairies et bois humides. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Usage alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est cueilli pour ses feuilles, jeunes pousses et ses racines renflées[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est cueilli pour ses feuilles, jeunes pousses et ses racines renflées.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Espèces voisines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirsium erisithales (le Cirse glutineux), Cirsium spinosissimum (le Cirse épineux).
 </t>
@@ -636,7 +656,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : racème de capitules
